--- a/biology/Zoologie/Azuré_de_l'ajonc/Azuré_de_l'ajonc.xlsx
+++ b/biology/Zoologie/Azuré_de_l'ajonc/Azuré_de_l'ajonc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
+          <t>Azuré_de_l'ajonc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plebejus argus
 L’Azuré de l'ajonc ou Petit argus (Plebejus argus) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
+          <t>Azuré_de_l'ajonc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Plebejus argus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio argus[1].
-De très nombreuses sous-espèces, formes et variétés ont été décrites et ne sont pas reconnues par tous les auteurs, ce qui fait qu'il existe de nombreux synonymes[1],[2].
-Le site Funet mentionne les sous-espèces suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Plebejus argus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio argus.
+De très nombreuses sous-espèces, formes et variétés ont été décrites et ne sont pas reconnues par tous les auteurs, ce qui fait qu'il existe de nombreux synonymes,.
+Le site Funet mentionne les sous-espèces suivantes :
 Plebejus argus argus (Linnaeus, 1758) — Scandinavie.
 Plebejus argus aegon (Denis &amp; Schiffermüller, 1775) — Carélie.
-Plebejus argus bella (Herrich-Schäffer, [1844]) — Asie Mineure, Levant, Caucase.
+Plebejus argus bella (Herrich-Schäffer, ) — Asie Mineure, Levant, Caucase.
 Plebejus argus micrargus (Butler, 1878) — Japon, Sakhaline.
 Plebejus argus bejarensis (Chapman, 1902)
 Plebejus argus casaiacus Chapman, 1907 — Espagne.
@@ -536,7 +550,7 @@
 Plebejus argus sultana (Forster, 1936) — Asia Minor
 Plebejus argus seoki Shirôzu &amp; Sibatani, 1943 — Corée, Japon.
 Plebejus argus asur Agenjo, 1966 — Espagne.
-Plebejus argus corsicus (Bellier 1862) — Corse[3].</t>
+Plebejus argus corsicus (Bellier 1862) — Corse.</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
+          <t>Azuré_de_l'ajonc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,11 +578,13 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : l’Azuré de l'ajonc, le Petit argus[4], l'Argus, l'Argus bleu-violet, l'Argus satiné[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En français : l’Azuré de l'ajonc, le Petit argus, l'Argus, l'Argus bleu-violet, l'Argus satiné.
 En anglais : Silver-studded blue.
-En espagnol : Niña hocecillas[1].</t>
+En espagnol : Niña hocecillas.</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
+          <t>Azuré_de_l'ajonc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu violet à bordure noire et frange blanche, celui de la femelle est marron avec une ligne de lunules sub marginales orange surtout visibles aux postérieures.
 Le revers est beige chez le mâle, ocre chez la femelle orné d'une ligne marginale de points noirs pupillés de bleu vert argenté doublée d'une ligne de lunules orange puis d'une ligne de points noirs cerclés de blanc.
@@ -604,8 +622,6 @@
 			Avers d'une femelle.
 			Revers d'un mâle.
 			Revers d'une femelle.
-Chenille
-La chenille, petite et trapue, possède une tête rétractile noire et un corps verdâtre avec une bande dorsale brune et sur les flancs une ligne blanche[6].
 </t>
         </is>
       </c>
@@ -616,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
+          <t>Azuré_de_l'ajonc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,56 +647,205 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, petite et trapue, possède une tête rétractile noire et un corps verdâtre avec une bande dorsale brune et sur les flancs une ligne blanche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'ajonc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état d'œuf ou de chenille.
-Les chenilles sont soignées par des fourmis[3] (mutualisme).
-Il vole en deux générations, en mai-juin puis juillet-août. Les sous-espèces Plebejus argus aegidion, Plebejus argus hypochionus et Plebejus argus corsica  sont univoltines[3].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état d'œuf ou de chenille.
+Les chenilles sont soignées par des fourmis (mutualisme).
+Il vole en deux générations, en mai-juin puis juillet-août. Les sous-espèces Plebejus argus aegidion, Plebejus argus hypochionus et Plebejus argus corsica  sont univoltines.
 			Œuf
 			Chenille et fourmis
 			Chrysalide
-Plantes hôtes
-Ses plantes hôtes sont des fabacées (gousses et fleurs): Astragalus, Coronilla, Cytisus, Galega, Genista, Lotus, Ulex. Pour Plebejus argus caernensis, la plante hôte est Helianthemum nummularium; pour Plebejus argus aegidion, c'est Onobrychis supina et Dirycnium pentaphyllum[3].
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_l%27ajonc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'ajonc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des fabacées (gousses et fleurs): Astragalus, Coronilla, Cytisus, Galega, Genista, Lotus, Ulex. Pour Plebejus argus caernensis, la plante hôte est Helianthemum nummularium; pour Plebejus argus aegidion, c'est Onobrychis supina et Dirycnium pentaphyllum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'ajonc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de l'Azuré de l'ajonc est paléarctique et recouvre toute l'Europe (sauf au nord la majorité de l'Angleterre et de la Scandinavie) et l'Asie tempérée jusqu'au Japon[3],[1].
-En France métropolitaine, il serait présent dans tous les départements sauf quatre, Lot-et-Garonne, Tarn-et-Garonne, Mayenne et Hauts-de-Seine[4]. Mais la dernière mention remonte souvent à plusieurs dizaines d'années comme dans la Vienne 1912[7].
-Biotope
-Il réside dans des lieux variés herbus et fleuris.
-Protection
-Pas de statut de protection particulier[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de l'Azuré de l'ajonc est paléarctique et recouvre toute l'Europe (sauf au nord la majorité de l'Angleterre et de la Scandinavie) et l'Asie tempérée jusqu'au Japon,.
+En France métropolitaine, il serait présent dans tous les départements sauf quatre, Lot-et-Garonne, Tarn-et-Garonne, Mayenne et Hauts-de-Seine. Mais la dernière mention remonte souvent à plusieurs dizaines d'années comme dans la Vienne 1912.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'ajonc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux variés herbus et fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'ajonc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27ajonc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
